--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>982858.62135059</v>
+        <v>956001.6093722521</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7128448.701475537</v>
+        <v>6950106.282414488</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3476108.837864222</v>
+        <v>2917029.297111916</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10432492.37306825</v>
+        <v>10678127.49649343</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.4368283879286</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>5.735920110877182</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>333.4509533128258</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>26.94389492651078</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7102898626888</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>184.5808806410313</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>130.0455752073216</v>
       </c>
     </row>
     <row r="11">
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>184.7686429344121</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>64.3701233831914</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.26024958059011</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.18624318344743</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>95.49770810958589</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>168.5232968021053</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>154.9940953841837</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>26.94389492651078</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.26024958059013</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.18624318344743</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2570059982656</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>146.8105729959039</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>221.5453322894863</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>195.0279920944462</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2019,10 +2019,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>34.987230763697</v>
       </c>
       <c r="X19" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,10 +2256,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,19 +2295,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>42.86209348694648</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>171.7647334826871</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>121.2877059169213</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>77.31354443380498</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>76.3492485097301</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>114.2656173771023</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247837</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>104.259066017576</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>176.7697821123589</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3207,7 +3207,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>19.18789823326414</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>28.20584125154421</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>149.2419515106225</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492406</v>
+        <v>47.46616726055766</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3915,7 +3915,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>192.206036509237</v>
       </c>
       <c r="X43" t="n">
-        <v>75.32192060851608</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>111.7971914636051</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>196.8720157335361</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2268.654643287636</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2691.355232320367</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2360.292344976796</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2360.292344976796</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1986.826586715716</v>
       </c>
       <c r="Y2" t="n">
-        <v>2268.654643287636</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="3">
@@ -4388,16 +4388,16 @@
         <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1166.959449965771</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C5" t="n">
-        <v>797.9969330253591</v>
+        <v>1194.514187280852</v>
       </c>
       <c r="D5" t="n">
-        <v>439.7312344186087</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2669.933035536898</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2317.164380266784</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1943.698622005704</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1553.559290029893</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.9054987607761</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="C8" t="n">
-        <v>53.94298182036445</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D8" t="n">
-        <v>53.94298182036445</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2510.703757037383</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2256.941971675474</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1925.879084331904</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1573.11042906179</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>1199.64467080071</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y8" t="n">
-        <v>809.505338824898</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810045</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810045</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810045</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810045</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810045</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810045</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810045</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810045</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810045</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.9054987607761</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036445</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>199.5143021373487</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>468.4264940665502</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>838.937608855259</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1282.872051350723</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>1738.603625623768</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2155.602766936376</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>2477.000885571628</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.18474111696</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>2510.51409815518</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.941971675474</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.879084331904</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W11" t="n">
-        <v>1573.11042906179</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X11" t="n">
-        <v>1199.64467080071</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.505338824898</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3062050962127</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8531758150857</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9187661538344</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>448.681311148379</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>302.146753175264</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>165.5050957234327</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>72.31292442990731</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>121.8264159807866</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>316.0048420001851</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>731.6674135328751</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1109.768219186676</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1512.28487300782</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2179.82927303483</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2438.195165861565</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2560.986726597623</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2560.986726597623</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.374760706703</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.608979049431</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.522806046712</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.370697814969</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.133341086767</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.281840881235</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.521542116281</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>940.6336952716412</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>771.6975123437343</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>82.88339090485941</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>260.2782098866545</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>542.8089378877605</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>851.0870999282812</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1157.469712732903</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1424.447349606354</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1629.372157534689</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1687.816392302166</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1687.816392302166</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1687.816392302166</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1517.590839976807</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1228.475234934999</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V13" t="n">
-        <v>973.7907467291122</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W13" t="n">
-        <v>684.3735766921516</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X13" t="n">
-        <v>456.3840257941342</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="Y13" t="n">
-        <v>235.5914466506042</v>
+        <v>940.6336952716412</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166.959449965771</v>
+        <v>2373.207824949186</v>
       </c>
       <c r="C14" t="n">
-        <v>797.9969330253591</v>
+        <v>2004.245308008774</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>1645.979609402023</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>1260.191356803779</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>849.2054520141717</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>434.1330018591682</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>136.5494014679354</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>94.55250270740417</v>
       </c>
       <c r="J14" t="n">
-        <v>199.5143021373487</v>
+        <v>283.4316336664296</v>
       </c>
       <c r="K14" t="n">
-        <v>468.42649406655</v>
+        <v>767.7796978191648</v>
       </c>
       <c r="L14" t="n">
-        <v>838.9376088552594</v>
+        <v>1632.29851347252</v>
       </c>
       <c r="M14" t="n">
-        <v>1282.872051350724</v>
+        <v>2165.830418144444</v>
       </c>
       <c r="N14" t="n">
-        <v>1738.603625623768</v>
+        <v>3145.582690371091</v>
       </c>
       <c r="O14" t="n">
-        <v>2155.602766936376</v>
+        <v>4025.547340700546</v>
       </c>
       <c r="P14" t="n">
-        <v>2477.000885571628</v>
+        <v>4420.321707057724</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.18474111696</v>
+        <v>4668.608068813406</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>4727.625135370208</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>4617.334466897303</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>4460.774774590047</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>4207.244297863884</v>
       </c>
       <c r="V14" t="n">
-        <v>2669.933035536898</v>
+        <v>3876.181410520313</v>
       </c>
       <c r="W14" t="n">
-        <v>2317.164380266784</v>
+        <v>3523.412755250199</v>
       </c>
       <c r="X14" t="n">
-        <v>1943.698622005704</v>
+        <v>3149.946996989119</v>
       </c>
       <c r="Y14" t="n">
-        <v>1553.559290029893</v>
+        <v>2759.807665013308</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3062050962127</v>
+        <v>969.5842407563295</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8531758150857</v>
+        <v>795.1312114752025</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9187661538344</v>
+        <v>646.1968018139512</v>
       </c>
       <c r="E15" t="n">
-        <v>448.681311148379</v>
+        <v>486.9593468084956</v>
       </c>
       <c r="F15" t="n">
-        <v>302.146753175264</v>
+        <v>340.4247888353806</v>
       </c>
       <c r="G15" t="n">
-        <v>165.5050957234327</v>
+        <v>204.0616886679987</v>
       </c>
       <c r="H15" t="n">
-        <v>72.31292442990731</v>
+        <v>113.5597943058662</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>94.55250270740417</v>
       </c>
       <c r="J15" t="n">
-        <v>121.8264159807866</v>
+        <v>188.2297721980215</v>
       </c>
       <c r="K15" t="n">
-        <v>316.0048420001851</v>
+        <v>426.4939711783687</v>
       </c>
       <c r="L15" t="n">
-        <v>623.4242400445569</v>
+        <v>793.192131491034</v>
       </c>
       <c r="M15" t="n">
-        <v>1290.968640071567</v>
+        <v>1240.46845671335</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.824967998518</v>
+        <v>1713.991500267804</v>
       </c>
       <c r="O15" t="n">
-        <v>2179.829273034831</v>
+        <v>2124.952779685859</v>
       </c>
       <c r="P15" t="n">
-        <v>2438.195165861565</v>
+        <v>2435.452371161962</v>
       </c>
       <c r="Q15" t="n">
-        <v>2560.986726597623</v>
+        <v>2593.093928808562</v>
       </c>
       <c r="R15" t="n">
-        <v>2560.986726597623</v>
+        <v>2592.949575401077</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.374760706703</v>
+        <v>2463.511688894557</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.608979049431</v>
+        <v>2270.868688572413</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.522806046712</v>
+        <v>2042.800841706828</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.370697814969</v>
+        <v>1807.648733475086</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.133341086767</v>
+        <v>1553.411376746884</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.281840881235</v>
+        <v>1345.559876541351</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.521542116281</v>
+        <v>1137.799577776397</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1088.377376515824</v>
+        <v>703.275567195131</v>
       </c>
       <c r="C16" t="n">
-        <v>919.4411935879167</v>
+        <v>703.275567195131</v>
       </c>
       <c r="D16" t="n">
-        <v>769.3245541755809</v>
+        <v>703.275567195131</v>
       </c>
       <c r="E16" t="n">
-        <v>621.4114605931878</v>
+        <v>555.3624736127379</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5215130952774</v>
+        <v>408.4725261148275</v>
       </c>
       <c r="G16" t="n">
-        <v>306.5851434000597</v>
+        <v>240.7696894895464</v>
       </c>
       <c r="H16" t="n">
-        <v>158.2916353233891</v>
+        <v>94.55250270740417</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>94.55250270740417</v>
       </c>
       <c r="J16" t="n">
-        <v>82.8833909048594</v>
+        <v>139.6751351543397</v>
       </c>
       <c r="K16" t="n">
-        <v>260.2782098866545</v>
+        <v>343.6623181032161</v>
       </c>
       <c r="L16" t="n">
-        <v>542.8089378877603</v>
+        <v>660.2221165517121</v>
       </c>
       <c r="M16" t="n">
-        <v>851.0870999282808</v>
+        <v>1004.379162151261</v>
       </c>
       <c r="N16" t="n">
-        <v>1157.469712732903</v>
+        <v>1345.787538857126</v>
       </c>
       <c r="O16" t="n">
-        <v>1424.447349606354</v>
+        <v>1645.117137777539</v>
       </c>
       <c r="P16" t="n">
-        <v>1629.372157534689</v>
+        <v>1877.724638211199</v>
       </c>
       <c r="Q16" t="n">
-        <v>1687.816392302165</v>
+        <v>1955.334934363714</v>
       </c>
       <c r="R16" t="n">
-        <v>1687.816392302165</v>
+        <v>1955.334934363714</v>
       </c>
       <c r="S16" t="n">
-        <v>1687.816392302165</v>
+        <v>1955.334934363714</v>
       </c>
       <c r="T16" t="n">
-        <v>1687.816392302165</v>
+        <v>1733.568318933239</v>
       </c>
       <c r="U16" t="n">
-        <v>1687.816392302165</v>
+        <v>1444.465452058883</v>
       </c>
       <c r="V16" t="n">
-        <v>1687.816392302165</v>
+        <v>1220.682288130109</v>
       </c>
       <c r="W16" t="n">
-        <v>1687.816392302165</v>
+        <v>931.2651180931483</v>
       </c>
       <c r="X16" t="n">
-        <v>1490.818420489593</v>
+        <v>703.275567195131</v>
       </c>
       <c r="Y16" t="n">
-        <v>1270.025841346063</v>
+        <v>703.275567195131</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5503,64 +5503,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,16 +5624,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V19" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W19" t="n">
-        <v>1674.827124689058</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X19" t="n">
-        <v>1523.103642431788</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y19" t="n">
-        <v>1302.311063288258</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5749,37 +5749,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427196</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196075</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2883.993034926782</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660289</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
         <v>1715.000032008795</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3942.370854773035</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C22" t="n">
-        <v>3773.434671845128</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D22" t="n">
-        <v>3623.318032432792</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E22" t="n">
-        <v>3475.404938850399</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>3328.514991352489</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.7687655736</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699243</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V22" t="n">
-        <v>3942.370854773035</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W22" t="n">
-        <v>3942.370854773035</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="X22" t="n">
-        <v>3942.370854773035</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y22" t="n">
-        <v>3942.370854773035</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807097</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750057</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,7 +6098,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6107,7 +6107,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3314.416602430729</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C25" t="n">
-        <v>3145.480419502822</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D25" t="n">
-        <v>2995.363780090487</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E25" t="n">
-        <v>2917.269290763411</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>4778.05172241972</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>4488.948855545364</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>4234.264367339477</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>3944.847197302516</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>3716.857646404499</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y25" t="n">
-        <v>3496.065067260969</v>
+        <v>680.5797464134954</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3942.370854773036</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C28" t="n">
-        <v>3773.434671845129</v>
+        <v>322.7981269008616</v>
       </c>
       <c r="D28" t="n">
-        <v>3623.318032432793</v>
+        <v>172.6814874885258</v>
       </c>
       <c r="E28" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4572.801449644822</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>4572.801449644822</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>4572.801449644822</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>4572.801449644822</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>4572.801449644822</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>4344.811898746805</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>4124.019319603275</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577528</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906983</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353929</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973205</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161936</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549423</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494868</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763718</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468574</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
         <v>1715.000032008795</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517389</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6627,13 +6627,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
         <v>1646.12566951853</v>
@@ -6651,22 +6651,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.658977898817</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W31" t="n">
-        <v>1701.658977898817</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.103642431788</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
         <v>1646.988141143014</v>
@@ -6688,22 +6688,22 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
         <v>1482.778354750621</v>
@@ -6712,16 +6712,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807097</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6794,37 +6794,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3858.203957510973</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C34" t="n">
-        <v>3689.267774583067</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D34" t="n">
-        <v>3539.151135170731</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E34" t="n">
-        <v>3391.238041588338</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F34" t="n">
-        <v>3244.348094090427</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>3076.645257465146</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>2930.428070683004</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>4778.051722419721</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>4778.051722419721</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V34" t="n">
-        <v>4778.051722419721</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W34" t="n">
-        <v>4488.63455238276</v>
+        <v>1445.159680637269</v>
       </c>
       <c r="X34" t="n">
-        <v>4260.645001484743</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y34" t="n">
-        <v>4039.852422341213</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6943,13 +6943,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,64 +6992,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3942.370854773036</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C37" t="n">
-        <v>3773.434671845129</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D37" t="n">
-        <v>3623.318032432793</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E37" t="n">
-        <v>3475.4049388504</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.768765573601</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>4124.019319603275</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>4124.019319603275</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>4124.019319603275</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X37" t="n">
-        <v>4124.019319603275</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y37" t="n">
-        <v>4124.019319603275</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7180,46 +7180,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,16 +7283,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0738540998329</v>
+        <v>902.3463618439697</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7399,16 +7399,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7429,34 +7429,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
         <v>487.9678785494859</v>
@@ -7481,13 +7481,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>877.1197344942216</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C43" t="n">
-        <v>708.1835515663147</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D43" t="n">
-        <v>558.0669121539789</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1538185715858</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1355.643526557401</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V43" t="n">
-        <v>1355.643526557401</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W43" t="n">
-        <v>1355.643526557401</v>
+        <v>1251.326472174381</v>
       </c>
       <c r="X43" t="n">
-        <v>1279.560778467991</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="Y43" t="n">
-        <v>1058.768199324461</v>
+        <v>1023.336921276364</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7660,40 +7660,40 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>918.9962703586706</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C46" t="n">
-        <v>750.0600874307637</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D46" t="n">
-        <v>599.9434480184279</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E46" t="n">
-        <v>452.0303544360348</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F46" t="n">
-        <v>452.0303544360348</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431758</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1644.746393431758</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1390.061905225871</v>
+        <v>1246.613361846806</v>
       </c>
       <c r="W46" t="n">
-        <v>1100.64473518891</v>
+        <v>957.1961918098458</v>
       </c>
       <c r="X46" t="n">
-        <v>1100.64473518891</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="Y46" t="n">
-        <v>1100.64473518891</v>
+        <v>729.2066409118285</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>109.3365388770891</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>324.7879747380777</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>17.26494649393206</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>152.0491822857462</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>292.3672670436453</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>141.7572465715222</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>17.26494649393209</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>374.1693948021921</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400226</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>29.61882225791908</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400235</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>205.836063383079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22603,10 +22603,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>245.4882473974121</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>21.23208830785711</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>300.8083635436241</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,16 +23023,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>244.5626019083188</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>31.86743971662654</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23199,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>88.53907814477319</v>
       </c>
     </row>
     <row r="11">
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8862654257798</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>61.44749355031655</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>21.40555943231467</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>263.3821350869435</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>53.11776490862647</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>103.3051669679944</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521085</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>193.7981713870603</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>52.01349735989629</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.44749355031655</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.1742023667267</v>
+        <v>48.92387475543649</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8083635436241</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32764374521086</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>193.7981713870603</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>30.59231103434175</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>30.68166329459098</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>251.535767572894</v>
       </c>
       <c r="X19" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>209.2755498368815</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>53.94492190635003</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>58.544274265016</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>69.12041821276419</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>70.08471413683907</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>75.50340795433958</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>147.878577306252</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>48.93987327667827</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>83.32522828944178</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>206.521757155773</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.4096317666681</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270132</v>
+        <v>132.3658129213796</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>94.31696182735402</v>
       </c>
       <c r="X43" t="n">
-        <v>150.3877347805211</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>54.22861679542309</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>55.26562759029187</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>761571.3517504171</v>
+        <v>761571.351750417</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>761571.351750417</v>
+        <v>761571.3517504171</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771381.7646861494</v>
+        <v>839102.5562688301</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771381.7646861497</v>
+        <v>988310.4932157611</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165454</v>
@@ -26322,22 +26322,22 @@
         <v>303610.2405165453</v>
       </c>
       <c r="E2" t="n">
-        <v>327765.7989333927</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="F2" t="n">
-        <v>327765.7989333929</v>
+        <v>414891.3475053027</v>
       </c>
       <c r="G2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="H2" t="n">
+        <v>416935.8762313325</v>
+      </c>
+      <c r="I2" t="n">
+        <v>416935.8762313322</v>
+      </c>
+      <c r="J2" t="n">
         <v>416935.8762313323</v>
-      </c>
-      <c r="I2" t="n">
-        <v>416935.8762313323</v>
-      </c>
-      <c r="J2" t="n">
-        <v>416935.8762313324</v>
       </c>
       <c r="K2" t="n">
         <v>416935.8762313323</v>
@@ -26346,16 +26346,16 @@
         <v>416935.8762313324</v>
       </c>
       <c r="M2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313323</v>
       </c>
       <c r="N2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="O2" t="n">
+        <v>416935.8762313324</v>
+      </c>
+      <c r="P2" t="n">
         <v>416935.8762313323</v>
-      </c>
-      <c r="P2" t="n">
-        <v>416935.8762313324</v>
       </c>
     </row>
     <row r="3">
@@ -26374,37 +26374,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>469045.4557502365</v>
+        <v>618960.3159503536</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100428.7464736737</v>
       </c>
       <c r="G3" t="n">
-        <v>242267.3897762175</v>
+        <v>3455.292777866431</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>39153.48277254672</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>85848.09611538738</v>
       </c>
       <c r="O3" t="n">
-        <v>125192.8247873505</v>
+        <v>3033.802150013078</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>7134.159330842212</v>
+        <v>4280.907416980707</v>
       </c>
       <c r="F4" t="n">
-        <v>7134.159330842216</v>
+        <v>21017.63618276097</v>
       </c>
       <c r="G4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="H4" t="n">
-        <v>21619.60799709184</v>
-      </c>
       <c r="I4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709185</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709185</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>61958.82776879413</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>61958.82776879413</v>
+        <v>95617.03413056106</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422877.2824722788</v>
+        <v>-428945.696218098</v>
       </c>
       <c r="C6" t="n">
-        <v>167090.5967422655</v>
+        <v>161022.1829964464</v>
       </c>
       <c r="D6" t="n">
-        <v>167090.5967422654</v>
+        <v>161022.1829964463</v>
       </c>
       <c r="E6" t="n">
-        <v>-210372.6439164801</v>
+        <v>-342976.7993073221</v>
       </c>
       <c r="F6" t="n">
-        <v>258672.8118337566</v>
+        <v>197058.6173052857</v>
       </c>
       <c r="G6" t="n">
-        <v>56665.36020430931</v>
+        <v>294805.5023004025</v>
       </c>
       <c r="H6" t="n">
-        <v>298932.7499805266</v>
+        <v>298260.795078269</v>
       </c>
       <c r="I6" t="n">
-        <v>298932.7499805267</v>
+        <v>298260.7950782687</v>
       </c>
       <c r="J6" t="n">
-        <v>122509.5307879341</v>
+        <v>121837.5758856759</v>
       </c>
       <c r="K6" t="n">
-        <v>298932.7499805266</v>
+        <v>298260.7950782688</v>
       </c>
       <c r="L6" t="n">
-        <v>298932.7499805269</v>
+        <v>298260.7950782689</v>
       </c>
       <c r="M6" t="n">
-        <v>298932.749980527</v>
+        <v>259107.3123057221</v>
       </c>
       <c r="N6" t="n">
-        <v>298932.749980527</v>
+        <v>212412.6989628815</v>
       </c>
       <c r="O6" t="n">
-        <v>173739.9251931763</v>
+        <v>295226.9929282558</v>
       </c>
       <c r="P6" t="n">
-        <v>298932.749980527</v>
+        <v>298260.7950782688</v>
       </c>
     </row>
   </sheetData>
@@ -26746,28 +26746,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>961.5670451980344</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>961.5670451980343</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>1181.906283842552</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>583.8233809809478</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128.209655395264</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>157.1141826477373</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>350.5048284402592</v>
       </c>
       <c r="G4" t="n">
-        <v>520.2256578503744</v>
+        <v>12.6066467623782</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>157.1141826477373</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>350.5048284402592</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503744</v>
+        <v>12.6066467623782</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>157.1141826477373</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>350.5048284402592</v>
       </c>
       <c r="O4" t="n">
-        <v>520.2256578503744</v>
+        <v>12.6066467623782</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.865596161600136</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>39.5885366899874</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>328.0876422206098</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>491.7183277411436</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>610.0200662717139</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>678.7648620105703</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>689.7479871047167</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>651.3094652728054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>555.8775600333018</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>417.4408974959969</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>242.8222548861147</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>88.08727253246317</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.9216471974046</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>71.21038966796765</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>195.4067520812345</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>333.9812632363777</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>449.0790242691386</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>524.0540396329287</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>537.9241906905495</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>492.0955424609224</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>38.41732487182711</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.336604854122578</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.733973360193177</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>52.14530795926391</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>201.4561776660799</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>257.7945484781747</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>265.3452142921069</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>245.0892527662138</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>209.7161962182728</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>77.96574763195864</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>30.21842664991199</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.408795266279935</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.865596161600135</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58853668998739</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>328.0876422206098</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>491.7183277411436</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>610.0200662717139</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>678.7648620105701</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>689.7479871047167</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>651.3094652728053</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>555.8775600333018</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.4408974959969</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>242.8222548861147</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>88.08727253246316</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>16.9216471974046</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>71.21038966796765</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>195.4067520812345</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>333.9812632363776</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>449.0790242691386</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>524.0540396329286</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>537.9241906905494</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>492.0955424609223</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>38.4173248718271</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>8.336604854122577</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.733973360193176</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>15.41659951153571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>52.1453079592639</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>201.4561776660799</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>257.7945484781746</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>265.3452142921069</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>245.0892527662138</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>209.7161962182728</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>145.1966238249032</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>77.96574763195862</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>30.21842664991198</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>7.408795266279934</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33183,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33335,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0417376939235</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>271.6284766961631</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>374.2536513017266</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>448.4186287832975</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>460.3349235081258</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>421.2112538511186</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6445642780323</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.1352076215474</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>27.23671707198258</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>68.56912541456785</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>196.1398242620187</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>419.8611833663535</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>381.9200057109104</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>406.5824786072162</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>674.2872727545556</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>260.9756493199342</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.0318795313709</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.23273644898481</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>179.1866858401971</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>285.3845737384909</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>311.3920828692128</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>309.4773866713355</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>206.9947554831663</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.0345805732088</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0417376939235</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>271.628476696163</v>
+        <v>489.2404688411467</v>
       </c>
       <c r="L14" t="n">
-        <v>374.2536513017266</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>448.4186287832974</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>460.3349235081258</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>421.2112538511185</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6445642780323</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.1352076215474</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>27.23671707198255</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>68.56912541456785</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>196.1398242620186</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>310.5246444892645</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>674.2872727545556</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>548.3397251787383</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>349.4992980164779</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>260.9756493199341</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.0318795313709</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.2327364489848</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>179.186685840197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>285.3845737384908</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>311.3920828692127</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>309.4773866713355</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>206.9947554831663</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.0345805732088</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>882.2223956904114</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282419</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>581.9206576708306</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509647</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282428</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37548,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37557,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38028,10 +38028,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>956001.6093722521</v>
+        <v>978120.583100652</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6950106.282414488</v>
+        <v>7128448.701475534</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2917029.297111916</v>
+        <v>3476108.837864221</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10678127.49649343</v>
+        <v>10432492.37306825</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>216.8971570226923</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>5.735920110877182</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>156.1271626621471</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>333.4509533128258</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>162.0487478169379</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>216.6993815150878</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>120.7102898626888</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>92.68458756041122</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.0455752073216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>24.78350327594968</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V11" t="n">
-        <v>64.3701233831914</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>95.49770810958589</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>52.47153051885047</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>154.9940953841837</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>245.2975694331562</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>125.0677437500205</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>221.5453322894863</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>192.1675620474795</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>34.987230763697</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>17.0400355515987</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>171.7647334826871</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.2877059169213</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>51.42539056436166</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>76.3492485097301</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>148.1563220161908</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>104.259066017576</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>146.1579437348914</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>19.18789823326414</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>28.20584125154421</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.9764333632482</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.46616726055766</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>80.76468634461081</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,7 +3678,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>79.54367350501168</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>192.206036509237</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>131.5730391207948</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>196.8720157335361</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1571.689018870909</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1202.726501930497</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>844.4608033237469</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>844.4608033237469</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>844.4608033237469</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>426.4969952219337</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2691.355232320367</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2360.292344976796</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2360.292344976796</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1986.826586715716</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>1596.687254739904</v>
+        <v>1958.288858935031</v>
       </c>
     </row>
     <row r="3">
@@ -4388,19 +4388,19 @@
         <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4494,37 +4494,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6471865296039</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6471865296039</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1563.476704221264</v>
+        <v>1912.117978031581</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.514187280852</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D5" t="n">
-        <v>857.6950425204218</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E5" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.476704221264</v>
+        <v>2302.257310007393</v>
       </c>
       <c r="Y5" t="n">
-        <v>1563.476704221264</v>
+        <v>1912.117978031581</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4731,40 +4731,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>632.5337622027571</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1330.912423534854</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="C8" t="n">
-        <v>1208.982837814967</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="D8" t="n">
-        <v>850.7171392082162</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E8" t="n">
-        <v>464.928886609972</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598976</v>
+        <v>1568.862778613903</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.512263598976</v>
+        <v>1568.862778613903</v>
       </c>
       <c r="Y8" t="n">
-        <v>1717.512263598976</v>
+        <v>1178.723446638091</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4904,22 +4904,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.4813941485145</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.321240915451</v>
+        <v>1697.340903526256</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.358723975039</v>
+        <v>1328.378386585844</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1328.378386585844</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>942.5901339875998</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>531.6042291979923</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>199.5143021373485</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>468.4264940665499</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>838.9376088552592</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>2672.115249325344</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>2672.115249325344</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2418.543122845638</v>
       </c>
       <c r="V11" t="n">
-        <v>3150.294826486578</v>
+        <v>2087.480235502067</v>
       </c>
       <c r="W11" t="n">
-        <v>2797.526171216464</v>
+        <v>2087.480235502067</v>
       </c>
       <c r="X11" t="n">
-        <v>2424.060412955384</v>
+        <v>2087.480235502067</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.921080979572</v>
+        <v>1697.340903526256</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>236.3315435062644</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>430.5099695256628</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>737.9293675700346</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1116.030173223836</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1518.54682704498</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>1864.551132081293</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2438.195165861565</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>940.6336952716412</v>
+        <v>647.1561703896742</v>
       </c>
       <c r="C13" t="n">
-        <v>771.6975123437343</v>
+        <v>647.1561703896742</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2351809199101</v>
+        <v>497.0395309773385</v>
       </c>
       <c r="E13" t="n">
-        <v>527.322087337517</v>
+        <v>349.1264373949454</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396067</v>
+        <v>202.236489897035</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>202.236489897035</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1634.814846323528</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1412.050407776052</v>
       </c>
       <c r="U13" t="n">
-        <v>1705.527932658019</v>
+        <v>1412.050407776052</v>
       </c>
       <c r="V13" t="n">
-        <v>1450.843444452132</v>
+        <v>1157.365919570165</v>
       </c>
       <c r="W13" t="n">
-        <v>1161.426274415171</v>
+        <v>867.9487495332044</v>
       </c>
       <c r="X13" t="n">
-        <v>1161.426274415171</v>
+        <v>867.9487495332044</v>
       </c>
       <c r="Y13" t="n">
-        <v>940.6336952716412</v>
+        <v>647.1561703896742</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2373.207824949186</v>
+        <v>1111.60917098102</v>
       </c>
       <c r="C14" t="n">
-        <v>2004.245308008774</v>
+        <v>742.6466540406084</v>
       </c>
       <c r="D14" t="n">
-        <v>1645.979609402023</v>
+        <v>742.6466540406084</v>
       </c>
       <c r="E14" t="n">
-        <v>1260.191356803779</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="F14" t="n">
-        <v>849.2054520141717</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="G14" t="n">
-        <v>434.1330018591682</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H14" t="n">
-        <v>136.5494014679354</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>94.55250270740417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>283.4316336664296</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K14" t="n">
-        <v>767.7796978191648</v>
+        <v>468.4264940665502</v>
       </c>
       <c r="L14" t="n">
-        <v>1632.29851347252</v>
+        <v>838.937608855259</v>
       </c>
       <c r="M14" t="n">
-        <v>2165.830418144444</v>
+        <v>1282.872051350723</v>
       </c>
       <c r="N14" t="n">
-        <v>3145.582690371091</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O14" t="n">
-        <v>4025.547340700546</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P14" t="n">
-        <v>4420.321707057724</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q14" t="n">
-        <v>4668.608068813406</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R14" t="n">
-        <v>4727.625135370208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>4617.334466897303</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>4460.774774590047</v>
+        <v>2488.892320950822</v>
       </c>
       <c r="U14" t="n">
-        <v>4207.244297863884</v>
+        <v>2241.116998291068</v>
       </c>
       <c r="V14" t="n">
-        <v>3876.181410520313</v>
+        <v>2241.116998291068</v>
       </c>
       <c r="W14" t="n">
-        <v>3523.412755250199</v>
+        <v>1888.348343020954</v>
       </c>
       <c r="X14" t="n">
-        <v>3149.946996989119</v>
+        <v>1888.348343020954</v>
       </c>
       <c r="Y14" t="n">
-        <v>2759.807665013308</v>
+        <v>1498.209011045142</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>969.5842407563295</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C15" t="n">
-        <v>795.1312114752025</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D15" t="n">
-        <v>646.1968018139512</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E15" t="n">
-        <v>486.9593468084956</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F15" t="n">
-        <v>340.4247888353806</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G15" t="n">
-        <v>204.0616886679987</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H15" t="n">
-        <v>113.5597943058662</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I15" t="n">
-        <v>94.55250270740417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>188.2297721980215</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K15" t="n">
-        <v>426.4939711783687</v>
+        <v>537.8115956207098</v>
       </c>
       <c r="L15" t="n">
-        <v>793.192131491034</v>
+        <v>845.2309936650815</v>
       </c>
       <c r="M15" t="n">
-        <v>1240.46845671335</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N15" t="n">
-        <v>1713.991500267804</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O15" t="n">
-        <v>2124.952779685859</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P15" t="n">
-        <v>2435.452371161962</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q15" t="n">
-        <v>2593.093928808562</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R15" t="n">
-        <v>2592.949575401077</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S15" t="n">
-        <v>2463.511688894557</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T15" t="n">
-        <v>2270.868688572413</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U15" t="n">
-        <v>2042.800841706828</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V15" t="n">
-        <v>1807.648733475086</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W15" t="n">
-        <v>1553.411376746884</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X15" t="n">
-        <v>1345.559876541351</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y15" t="n">
-        <v>1137.799577776397</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>703.275567195131</v>
+        <v>962.0662692290783</v>
       </c>
       <c r="C16" t="n">
-        <v>703.275567195131</v>
+        <v>793.1300863011714</v>
       </c>
       <c r="D16" t="n">
-        <v>703.275567195131</v>
+        <v>643.0134468888357</v>
       </c>
       <c r="E16" t="n">
-        <v>555.3624736127379</v>
+        <v>495.1003533064426</v>
       </c>
       <c r="F16" t="n">
-        <v>408.4725261148275</v>
+        <v>348.2104058085322</v>
       </c>
       <c r="G16" t="n">
-        <v>240.7696894895464</v>
+        <v>180.2740361133144</v>
       </c>
       <c r="H16" t="n">
-        <v>94.55250270740417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>94.55250270740417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>139.6751351543397</v>
+        <v>82.88339090485941</v>
       </c>
       <c r="K16" t="n">
-        <v>343.6623181032161</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L16" t="n">
-        <v>660.2221165517121</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M16" t="n">
-        <v>1004.379162151261</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N16" t="n">
-        <v>1345.787538857126</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O16" t="n">
-        <v>1645.117137777539</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P16" t="n">
-        <v>1877.724638211199</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q16" t="n">
-        <v>1955.334934363714</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R16" t="n">
-        <v>1955.334934363714</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="S16" t="n">
-        <v>1955.334934363714</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="T16" t="n">
-        <v>1733.568318933239</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="U16" t="n">
-        <v>1444.465452058883</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.682288130109</v>
+        <v>1433.131904096279</v>
       </c>
       <c r="W16" t="n">
-        <v>931.2651180931483</v>
+        <v>1143.714734059318</v>
       </c>
       <c r="X16" t="n">
-        <v>703.275567195131</v>
+        <v>1143.714734059318</v>
       </c>
       <c r="Y16" t="n">
-        <v>703.275567195131</v>
+        <v>1143.714734059318</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1002.806306216376</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5664,19 +5664,19 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,28 +5688,28 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1762.234817571896</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501056</v>
+        <v>1762.234817571896</v>
       </c>
       <c r="V19" t="n">
-        <v>1542.890966501056</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="W19" t="n">
         <v>1507.550329366009</v>
@@ -5728,58 +5728,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>877.1197344942216</v>
+        <v>746.4187980346554</v>
       </c>
       <c r="C22" t="n">
-        <v>708.1835515663147</v>
+        <v>577.4826151067485</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>427.3659756944128</v>
       </c>
       <c r="E22" t="n">
         <v>410.1538185715858</v>
@@ -5901,13 +5901,13 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1453.060509258584</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>1453.060509258584</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W22" t="n">
-        <v>1453.060509258584</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X22" t="n">
-        <v>1279.560778467991</v>
+        <v>928.0672628648952</v>
       </c>
       <c r="Y22" t="n">
-        <v>1058.768199324461</v>
+        <v>928.0672628648952</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>558.0669121539789</v>
+        <v>781.1514798657291</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0669121539789</v>
+        <v>612.2152969378222</v>
       </c>
       <c r="D25" t="n">
-        <v>558.0669121539789</v>
+        <v>462.0986575254865</v>
       </c>
       <c r="E25" t="n">
         <v>410.1538185715858</v>
@@ -6138,13 +6138,13 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6186,13 +6186,13 @@
         <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570255</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X25" t="n">
-        <v>901.3723255570255</v>
+        <v>962.7999446959689</v>
       </c>
       <c r="Y25" t="n">
-        <v>680.5797464134954</v>
+        <v>962.7999446959689</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>491.7343098287685</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C28" t="n">
-        <v>322.7981269008616</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D28" t="n">
-        <v>172.6814874885258</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1615.004731410125</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1325.901864535769</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>1325.901864535769</v>
       </c>
       <c r="W28" t="n">
-        <v>901.3723255570255</v>
+        <v>1325.901864535769</v>
       </c>
       <c r="X28" t="n">
-        <v>673.3827746590082</v>
+        <v>1097.912313637752</v>
       </c>
       <c r="Y28" t="n">
-        <v>673.3827746590082</v>
+        <v>877.1197344942216</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6490,25 +6490,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4168978689405</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.57685067423</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1629.264662777688</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1339.847492740728</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.85794184271</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>891.0653626991802</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,64 +6755,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.336921276364</v>
+        <v>560.0445975595949</v>
       </c>
       <c r="C34" t="n">
-        <v>854.4007383484569</v>
+        <v>391.108414631688</v>
       </c>
       <c r="D34" t="n">
-        <v>704.2840989361212</v>
+        <v>391.108414631688</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>243.1953210492949</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>243.1953210492949</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6894,16 +6894,16 @@
         <v>1734.57685067423</v>
       </c>
       <c r="V34" t="n">
-        <v>1734.57685067423</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W34" t="n">
-        <v>1445.159680637269</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X34" t="n">
-        <v>1425.777965250134</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.985386106604</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6943,13 +6943,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,16 +7046,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>270.9417306852383</v>
+        <v>560.0445975595949</v>
       </c>
       <c r="C37" t="n">
-        <v>270.9417306852383</v>
+        <v>391.108414631688</v>
       </c>
       <c r="D37" t="n">
-        <v>242.4509819463048</v>
+        <v>240.9917752193523</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>240.9917752193523</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839442</v>
@@ -7128,19 +7128,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V37" t="n">
-        <v>1190.789495593986</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W37" t="n">
-        <v>901.3723255570255</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X37" t="n">
-        <v>673.3827746590082</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.5901955154781</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7180,13 +7180,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>854.4007383484569</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C40" t="n">
-        <v>854.4007383484569</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="D40" t="n">
-        <v>704.2840989361212</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="E40" t="n">
-        <v>556.371005353728</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7362,22 +7362,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.556111024461</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.1389409875</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>1123.1389409875</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y40" t="n">
-        <v>902.3463618439697</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,7 +7520,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
         <v>2043.809373447819</v>
@@ -7529,7 +7529,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.336921276364</v>
+        <v>491.7343098287689</v>
       </c>
       <c r="C43" t="n">
-        <v>854.4007383484569</v>
+        <v>322.798126900862</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361212</v>
+        <v>322.798126900862</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>322.798126900862</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>175.9081794029517</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7575,13 +7575,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7602,19 +7602,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="V43" t="n">
-        <v>1445.473983799873</v>
+        <v>1190.789495593987</v>
       </c>
       <c r="W43" t="n">
-        <v>1251.326472174381</v>
+        <v>901.372325557026</v>
       </c>
       <c r="X43" t="n">
-        <v>1023.336921276364</v>
+        <v>673.3827746590086</v>
       </c>
       <c r="Y43" t="n">
-        <v>1023.336921276364</v>
+        <v>673.3827746590086</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7660,40 +7660,40 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E45" t="n">
         <v>487.9678785494859</v>
@@ -7718,13 +7718,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>729.2066409118285</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C46" t="n">
-        <v>560.2704579839216</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>410.1538185715858</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7842,16 +7842,16 @@
         <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1246.613361846806</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>957.1961918098458</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>729.2066409118285</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>729.2066409118285</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>115.6617449752301</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>152.0491822857462</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>97.95619053890903</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>219.3344627260164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>29.618822257921</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7011105564207</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>107.0256157416648</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22603,19 +22603,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>245.4882473974121</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,13 +22752,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>52.02592219651726</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>130.3958356744439</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>21.23208830785711</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22837,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>207.6823528615311</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>117.5062691663786</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>69.58249272688991</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,13 +23023,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>244.5626019083188</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>256.5563811570018</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>88.53907814477319</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.1492937778325</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>263.3821350869435</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>53.11776490862647</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>141.3266408682098</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T14" t="n">
-        <v>48.92387475543649</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>5.738835781752243</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>21.7428292458834</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V16" t="n">
-        <v>30.59231103434175</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>27.3813872286897</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>251.535767572894</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.3939270949705</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94492190635003</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58.544274265016</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>95.00857208220751</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>70.08471413683907</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,25 +24651,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>71.39262725997841</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>147.7570121569884</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>147.878577306252</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>19.86786452413679</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25134,13 +25134,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>206.521757155773</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>120.4096317666681</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.444614659682998</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.3658129213796</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>65.66927630195836</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25602,7 +25602,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>86.48213475401654</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>94.31696182735402</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>48.25894106114248</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>55.26562759029187</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>761571.3517504171</v>
+        <v>761571.351750417</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>761571.3517504171</v>
+        <v>761571.3517504169</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839102.5562688301</v>
+        <v>771381.7646861495</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>988310.4932157611</v>
+        <v>771381.7646861494</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>993677.0719405208</v>
+        <v>993677.0719405209</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>993677.0719405209</v>
+        <v>993677.0719405208</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="D2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="D2" t="n">
-        <v>303610.2405165453</v>
-      </c>
       <c r="E2" t="n">
-        <v>358046.9539194666</v>
+        <v>327765.7989333927</v>
       </c>
       <c r="F2" t="n">
-        <v>414891.3475053027</v>
+        <v>327765.7989333927</v>
       </c>
       <c r="G2" t="n">
+        <v>416935.8762313323</v>
+      </c>
+      <c r="H2" t="n">
+        <v>416935.8762313322</v>
+      </c>
+      <c r="I2" t="n">
         <v>416935.8762313324</v>
       </c>
-      <c r="H2" t="n">
-        <v>416935.8762313325</v>
-      </c>
-      <c r="I2" t="n">
-        <v>416935.8762313322</v>
-      </c>
       <c r="J2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="K2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="L2" t="n">
         <v>416935.8762313324</v>
@@ -26349,13 +26349,13 @@
         <v>416935.8762313323</v>
       </c>
       <c r="N2" t="n">
+        <v>416935.8762313323</v>
+      </c>
+      <c r="O2" t="n">
+        <v>416935.8762313323</v>
+      </c>
+      <c r="P2" t="n">
         <v>416935.8762313324</v>
-      </c>
-      <c r="O2" t="n">
-        <v>416935.8762313324</v>
-      </c>
-      <c r="P2" t="n">
-        <v>416935.8762313323</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503536</v>
+        <v>469045.4557502363</v>
       </c>
       <c r="F3" t="n">
-        <v>100428.7464736737</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3455.292777866431</v>
+        <v>242267.3897762173</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254672</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>85848.09611538738</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3033.802150013078</v>
+        <v>125192.8247873506</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>4280.907416980707</v>
+        <v>7134.159330842214</v>
       </c>
       <c r="F4" t="n">
-        <v>21017.63618276097</v>
+        <v>7134.159330842213</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
@@ -26456,10 +26456,10 @@
         <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="F5" t="n">
-        <v>95617.03413056106</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-428945.696218098</v>
+        <v>-423484.1238468608</v>
       </c>
       <c r="C6" t="n">
-        <v>161022.1829964464</v>
+        <v>166483.7553676837</v>
       </c>
       <c r="D6" t="n">
-        <v>161022.1829964463</v>
+        <v>166483.7553676837</v>
       </c>
       <c r="E6" t="n">
-        <v>-342976.7993073221</v>
+        <v>-210864.4588224102</v>
       </c>
       <c r="F6" t="n">
-        <v>197058.6173052857</v>
+        <v>258180.9969278261</v>
       </c>
       <c r="G6" t="n">
-        <v>294805.5023004025</v>
+        <v>56598.16471408366</v>
       </c>
       <c r="H6" t="n">
-        <v>298260.795078269</v>
+        <v>298865.5544903007</v>
       </c>
       <c r="I6" t="n">
-        <v>298260.7950782687</v>
+        <v>298865.5544903011</v>
       </c>
       <c r="J6" t="n">
-        <v>121837.5758856759</v>
+        <v>122442.335297708</v>
       </c>
       <c r="K6" t="n">
-        <v>298260.7950782688</v>
+        <v>298865.5544903011</v>
       </c>
       <c r="L6" t="n">
-        <v>298260.7950782689</v>
+        <v>298865.554490301</v>
       </c>
       <c r="M6" t="n">
-        <v>259107.3123057221</v>
+        <v>298865.5544903009</v>
       </c>
       <c r="N6" t="n">
-        <v>212412.6989628815</v>
+        <v>298865.5544903009</v>
       </c>
       <c r="O6" t="n">
-        <v>295226.9929282558</v>
+        <v>173672.7297029504</v>
       </c>
       <c r="P6" t="n">
-        <v>298260.7950782688</v>
+        <v>298865.5544903011</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980344</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>1181.906283842552</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>583.8233809809476</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>128.2096553952637</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477373</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>350.5048284402592</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.6066467623782</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477373</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>350.5048284402592</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.6066467623782</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477373</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>350.5048284402592</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.6066467623782</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105703</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246317</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>8.336604854122578</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>52.14530795926391</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>130.3926104730631</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>184.2308703897979</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>196.1398242620186</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>579.4384179598712</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K14" t="n">
-        <v>489.2404688411467</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>448.4186287832975</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>27.23671707198258</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>294.0960148009277</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>29.23273644898481</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>556.5257492814169</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>684.4630967757926</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37548,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37557,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38028,10 +38028,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38040,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
